--- a/Data/EC/NIT-8060029118.xlsx
+++ b/Data/EC/NIT-8060029118.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E7B0F9D-08AD-423E-99A8-D605B17AA5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23176B08-D753-46BB-90B4-58D6D56C4ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0D194B8D-A37D-46C7-89A8-B5DEA1E2E72A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2C940845-BC0A-4E34-93FE-FE385041102D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,15 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73149327</t>
+  </si>
+  <si>
+    <t>DAMASO CASTRO CAMPILLO</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
     <t>1143331317</t>
   </si>
   <si>
@@ -72,15 +81,6 @@
   </si>
   <si>
     <t>1811</t>
-  </si>
-  <si>
-    <t>73149327</t>
-  </si>
-  <si>
-    <t>DAMASO CASTRO CAMPILLO</t>
-  </si>
-  <si>
-    <t>2202</t>
   </si>
   <si>
     <t>1084733649</t>
@@ -503,7 +503,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{813A4ADD-4101-B15A-FFC4-18C4EE56A86E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FECD41FA-6689-BBC2-DDEE-244EE650E7C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -854,7 +854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFC6DE3-4233-4049-B4AD-2B0D08C1A9C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92585DA-1CBA-44F9-82CE-EEE3997D64D8}">
   <dimension ref="B2:J24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1032,10 +1032,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>39200</v>
+        <v>38666</v>
       </c>
       <c r="G16" s="18">
-        <v>1680000</v>
+        <v>1000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1055,10 +1055,10 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>38666</v>
+        <v>39200</v>
       </c>
       <c r="G17" s="18">
-        <v>1000000</v>
+        <v>1680000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
